--- a/data/trans_dic/IP36A-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP36A-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,59; 30,71</t>
+          <t>11,75; 29,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,4; 23,71</t>
+          <t>9,87; 24,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,88; 35,24</t>
+          <t>13,05; 34,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 76,7</t>
+          <t>0,0; 78,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,68; 29,91</t>
+          <t>11,81; 29,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,28; 25,63</t>
+          <t>9,95; 24,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,07; 23,91</t>
+          <t>7,31; 24,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 84,32</t>
+          <t>0,0; 84,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,44; 26,88</t>
+          <t>13,76; 26,22</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,83; 21,97</t>
+          <t>12,0; 22,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,13; 25,56</t>
+          <t>12,55; 25,85</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 59,52</t>
+          <t>3,61; 58,13</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 7,21</t>
+          <t>2,9; 7,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,13; 12,0</t>
+          <t>6,57; 12,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,84; 14,61</t>
+          <t>8,03; 14,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,54; 52,73</t>
+          <t>11,42; 51,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,38; 7,24</t>
+          <t>2,45; 7,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,7; 12,86</t>
+          <t>6,92; 12,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,37; 10,95</t>
+          <t>5,56; 11,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,67; 32,62</t>
+          <t>4,84; 34,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,18; 6,36</t>
+          <t>3,01; 6,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,29; 11,38</t>
+          <t>7,15; 11,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,5; 11,73</t>
+          <t>7,49; 11,8</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,89; 32,51</t>
+          <t>10,22; 33,3</t>
         </is>
       </c>
     </row>
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,52</t>
+          <t>0,0; 11,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,71; 16,23</t>
+          <t>3,61; 15,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,66; 18,32</t>
+          <t>4,58; 18,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 12,84</t>
+          <t>1,81; 13,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 12,59</t>
+          <t>1,27; 12,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 11,36</t>
+          <t>1,96; 11,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 9,36</t>
+          <t>1,8; 9,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,39; 10,89</t>
+          <t>3,24; 12,01</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,12; 12,68</t>
+          <t>4,37; 12,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,02; 9,56</t>
+          <t>4,84; 9,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,94; 12,93</t>
+          <t>7,76; 12,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,56; 15,32</t>
+          <t>9,64; 15,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,75; 46,92</t>
+          <t>12,18; 46,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,23; 10,0</t>
+          <t>5,14; 10,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,69; 12,69</t>
+          <t>7,74; 12,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,3; 10,96</t>
+          <t>6,32; 10,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,86; 30,64</t>
+          <t>5,04; 30,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,89; 9,15</t>
+          <t>5,76; 8,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,39; 11,99</t>
+          <t>8,46; 12,02</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,67; 12,53</t>
+          <t>8,65; 12,49</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,59; 32,31</t>
+          <t>11,6; 33,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP36A-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP36A-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,37%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,11%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,16%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,72%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,36%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>16,35%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,27%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,61; 28,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>10,26; 24,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,92; 23,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,26; 55,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,77; 30,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,89; 24,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,75; 33,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,03; 48,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,66; 25,34</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>11,88; 22,06</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,85; 25,05</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,66; 46,62</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,72%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>24,82%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,89%</t>
+          <t>15,29%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>14,73%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,75; 29,18</t>
+          <t>2,32; 6,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,87; 24,93</t>
+          <t>6,9; 12,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,05; 34,53</t>
+          <t>5,58; 10,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 78,74</t>
+          <t>8,8; 19,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,81; 29,35</t>
+          <t>2,69; 7,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,95; 24,49</t>
+          <t>6,39; 12,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,31; 24,04</t>
+          <t>7,68; 14,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 84,53</t>
+          <t>11,03; 20,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,76; 26,22</t>
+          <t>3,07; 6,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,0; 22,49</t>
+          <t>7,44; 11,69</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,55; 25,85</t>
+          <t>7,54; 11,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 58,13</t>
+          <t>11,36; 18,39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,49%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>20,86%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -981,17 +981,17 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>13,76%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 7,37</t>
+          <t>1,45; 12,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,57; 12,06</t>
+          <t>1,3; 12,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,03; 14,09</t>
+          <t>1,93; 11,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,42; 51,32</t>
+          <t>0,0; 19,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 7,36</t>
+          <t>0,0; 12,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,92; 12,87</t>
+          <t>3,36; 14,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,56; 11,14</t>
+          <t>4,58; 18,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,84; 34,83</t>
+          <t>8,71; 39,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 6,25</t>
+          <t>1,67; 9,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 11,15</t>
+          <t>3,46; 11,59</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,49; 11,8</t>
+          <t>4,18; 12,98</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,22; 33,3</t>
+          <t>6,9; 24,09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,26%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,1</t>
+          <t>5,2; 10,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 15,27</t>
+          <t>7,89; 12,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,58; 18,75</t>
+          <t>6,21; 11,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,3; 21,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 13,06</t>
+          <t>5,17; 9,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 12,32</t>
+          <t>7,67; 12,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,96; 11,3</t>
+          <t>9,59; 15,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>14,33; 23,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 9,01</t>
+          <t>5,78; 9,02</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,24; 12,01</t>
+          <t>8,3; 11,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,37; 12,71</t>
+          <t>8,78; 12,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>13,56; 20,82</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>7,01%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>10,11%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>12,27%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>26,23%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>7,46%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>10,02%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>8,37%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>14,83%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>7,23%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>10,07%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>10,34%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>19,89%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>4,84; 9,59</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>7,76; 12,78</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>9,64; 15,14</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>12,18; 46,58</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>5,14; 10,17</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>7,74; 12,69</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>6,32; 10,99</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>5,04; 30,01</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>5,76; 8,95</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>8,46; 12,02</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>8,65; 12,49</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>11,6; 33,05</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
